--- a/Assets/Cards/Cards.xlsx
+++ b/Assets/Cards/Cards.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="154">
   <si>
     <t>Сорока-мать</t>
   </si>
@@ -126,7 +126,7 @@
     <t>Сорока-ворчунья</t>
   </si>
   <si>
-    <t>редакая</t>
+    <t>редкая</t>
   </si>
   <si>
     <t>Заблокируйте две любые клетки</t>
@@ -138,9 +138,6 @@
     <t>Сорока-вор</t>
   </si>
   <si>
-    <t>редкая</t>
-  </si>
-  <si>
     <t>Вы крадете карту из руки противника и уничтожаете ее</t>
   </si>
   <si>
@@ -186,9 +183,6 @@
     <t>Возьмите карту и уничтожьте соседнюю свободную клетку</t>
   </si>
   <si>
-    <t>Free Select Magpie Spawn Free Adjacent Select Destroy Draw</t>
-  </si>
-  <si>
     <t>Сорока-верующая</t>
   </si>
   <si>
@@ -246,7 +240,7 @@
     <t>Free Select Beaver Spawn NExisting Select Build Beaver Spawn NExisting Select Build Beaver Spawn NExisting Select Build Beaver Spawn</t>
   </si>
   <si>
-    <t>Бобёр-шахтер</t>
+    <t>Бобёр-шахтёр</t>
   </si>
   <si>
     <t>Постройте клетку и поставьте на нее бобра</t>
@@ -264,7 +258,7 @@
     <t>Free Select ShiftAnchor Beaver Spawn Adjacent Beaver Occupied Select Push</t>
   </si>
   <si>
-    <t>Бобренок</t>
+    <t>Бобрёнок</t>
   </si>
   <si>
     <t>Free Select Beaver Spawn</t>
@@ -1106,10 +1100,10 @@
         <v>40</v>
       </c>
       <c r="B15" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>41</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>42</v>
       </c>
       <c r="D15" s="11">
         <v>13.0</v>
@@ -1117,129 +1111,148 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="D16" s="2">
         <v>14.0</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="D17" s="2">
         <v>15.0</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="D18" s="2">
         <v>16.0</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="D19" s="2">
         <v>17.0</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="D20" s="2">
         <v>18.0</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="E20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D21" s="5">
         <v>19.0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="D22" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22" s="2">
-        <v>20.0</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>63</v>
-      </c>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="6"/>
     </row>
     <row r="23">
       <c r="A23" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D23" s="5">
         <v>21.0</v>
@@ -1247,13 +1260,13 @@
     </row>
     <row r="24">
       <c r="A24" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D24" s="5">
         <v>22.0</v>
@@ -1261,36 +1274,36 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D25" s="2">
         <v>23.0</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D26" s="2">
         <v>24.0</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1322,58 +1335,58 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D2" s="2">
         <v>25.0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D3" s="2">
         <v>26.0</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D4" s="2">
         <v>27.0</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
@@ -1383,12 +1396,12 @@
         <v>28.0</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -1400,137 +1413,137 @@
         <v>29.0</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D7" s="2">
         <v>30.0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D8" s="2">
         <v>31.0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D9" s="2">
         <v>32.0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D10" s="2">
         <v>33.0</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D11" s="5">
         <v>34.0</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D12" s="2">
         <v>35.0</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D13" s="5">
         <v>36.0</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D14" s="11">
         <v>37.0</v>
@@ -1560,13 +1573,13 @@
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D15" s="5">
         <v>38.0</v>
@@ -1575,98 +1588,98 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D16" s="2">
         <v>39.0</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D17" s="2">
         <v>40.0</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D18" s="2">
         <v>41.0</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D19" s="2">
         <v>42.0</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D20" s="2">
         <v>43.0</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="14" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D21" s="18">
         <v>44.0</v>
@@ -1696,13 +1709,13 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D22" s="5">
         <v>45.0</v>
@@ -1710,13 +1723,13 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D23" s="11">
         <v>46.0</v>
@@ -1724,47 +1737,47 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D24" s="2">
         <v>47.0</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D25" s="2">
         <v>48.0</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D26" s="5">
         <v>49.0</v>
@@ -1793,51 +1806,51 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="2" ht="124.5" customHeight="1">
       <c r="A2" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="I2" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="L2" s="20" t="s">
         <v>146</v>
-      </c>
-      <c r="I2" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="L2" s="20" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B5" s="2">
         <v>6.0</v>
@@ -1845,7 +1858,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B6" s="2">
         <v>3.0</v>
@@ -1853,7 +1866,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B7" s="2">
         <v>1.0</v>

--- a/Assets/Cards/Cards.xlsx
+++ b/Assets/Cards/Cards.xlsx
@@ -1,19 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\LuckyThicket\Assets\Cards\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B8F3018-C194-4C3E-BEC6-179E36B17AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Magpies" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Beavers" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Game rules" sheetId="3" r:id="rId6"/>
+    <sheet name="Magpies" sheetId="1" r:id="rId1"/>
+    <sheet name="Beavers" sheetId="2" r:id="rId2"/>
+    <sheet name="Game rules" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="155">
   <si>
     <t>Сорока-мать</t>
   </si>
@@ -338,26 +347,26 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">Создает </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF4C1130"/>
         <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF4C1130"/>
-        <sz val="12.0"/>
       </rPr>
       <t>НЕ</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
       </rPr>
       <t>смежную клетку и перемещает туда выбранный отряд</t>
     </r>
@@ -512,37 +521,53 @@
   <si>
     <t>легендарные</t>
   </si>
+  <si>
+    <t>Free Select Magpie Spawn Draw Adjacent Free Select Destroy</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF4C1130"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -551,7 +576,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -585,85 +610,66 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="21">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -853,32 +859,37 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Z26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="21.13"/>
-    <col customWidth="1" min="3" max="3" width="75.0"/>
-    <col customWidth="1" min="5" max="5" width="99.38"/>
+    <col min="1" max="1" width="21.109375" customWidth="1"/>
+    <col min="3" max="3" width="75" customWidth="1"/>
+    <col min="5" max="5" width="99.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -889,13 +900,13 @@
         <v>2</v>
       </c>
       <c r="D2" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -906,13 +917,13 @@
         <v>6</v>
       </c>
       <c r="D3" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -923,11 +934,11 @@
         <v>9</v>
       </c>
       <c r="D4" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E4" s="6"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -938,13 +949,13 @@
         <v>11</v>
       </c>
       <c r="D5" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
@@ -953,13 +964,13 @@
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -970,13 +981,13 @@
         <v>16</v>
       </c>
       <c r="D7" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -987,13 +998,13 @@
         <v>19</v>
       </c>
       <c r="D8" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -1004,13 +1015,13 @@
         <v>22</v>
       </c>
       <c r="D9" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>24</v>
       </c>
@@ -1021,13 +1032,13 @@
         <v>25</v>
       </c>
       <c r="D10" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
@@ -1038,13 +1049,13 @@
         <v>28</v>
       </c>
       <c r="D11" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
@@ -1055,13 +1066,13 @@
         <v>31</v>
       </c>
       <c r="D12" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
@@ -1072,13 +1083,13 @@
         <v>34</v>
       </c>
       <c r="D13" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>36</v>
       </c>
@@ -1089,13 +1100,13 @@
         <v>38</v>
       </c>
       <c r="D14" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>40</v>
       </c>
@@ -1106,10 +1117,10 @@
         <v>41</v>
       </c>
       <c r="D15" s="11">
-        <v>13.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>42</v>
       </c>
@@ -1120,13 +1131,13 @@
         <v>43</v>
       </c>
       <c r="D16" s="2">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>45</v>
       </c>
@@ -1137,13 +1148,13 @@
         <v>46</v>
       </c>
       <c r="D17" s="2">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
@@ -1154,13 +1165,13 @@
         <v>49</v>
       </c>
       <c r="D18" s="2">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>51</v>
       </c>
@@ -1171,13 +1182,13 @@
         <v>52</v>
       </c>
       <c r="D19" s="2">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>54</v>
       </c>
@@ -1188,11 +1199,13 @@
         <v>55</v>
       </c>
       <c r="D20" s="2">
-        <v>18.0</v>
-      </c>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21">
+        <v>18</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>56</v>
       </c>
@@ -1203,10 +1216,10 @@
         <v>57</v>
       </c>
       <c r="D21" s="5">
-        <v>19.0</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>58</v>
       </c>
@@ -1217,7 +1230,7 @@
         <v>60</v>
       </c>
       <c r="D22" s="5">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>61</v>
@@ -1244,7 +1257,7 @@
       <c r="Y22" s="6"/>
       <c r="Z22" s="6"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>62</v>
       </c>
@@ -1255,10 +1268,10 @@
         <v>63</v>
       </c>
       <c r="D23" s="5">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>64</v>
       </c>
@@ -1269,10 +1282,10 @@
         <v>65</v>
       </c>
       <c r="D24" s="5">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>66</v>
       </c>
@@ -1283,13 +1296,13 @@
         <v>67</v>
       </c>
       <c r="D25" s="2">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>69</v>
       </c>
@@ -1300,40 +1313,41 @@
         <v>70</v>
       </c>
       <c r="D26" s="2">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>71</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Z26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="19.5"/>
-    <col customWidth="1" min="3" max="3" width="80.63"/>
-    <col customWidth="1" min="5" max="5" width="108.13"/>
+    <col min="1" max="1" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="80.6640625" customWidth="1"/>
+    <col min="5" max="5" width="108.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>72</v>
       </c>
@@ -1344,13 +1358,13 @@
         <v>73</v>
       </c>
       <c r="D2" s="2">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>75</v>
       </c>
@@ -1361,13 +1375,13 @@
         <v>76</v>
       </c>
       <c r="D3" s="2">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>78</v>
       </c>
@@ -1378,13 +1392,13 @@
         <v>79</v>
       </c>
       <c r="D4" s="2">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>81</v>
       </c>
@@ -1393,13 +1407,13 @@
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="2">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>83</v>
       </c>
@@ -1410,13 +1424,13 @@
         <v>22</v>
       </c>
       <c r="D6" s="2">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>85</v>
       </c>
@@ -1427,13 +1441,13 @@
         <v>86</v>
       </c>
       <c r="D7" s="2">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>88</v>
       </c>
@@ -1444,13 +1458,13 @@
         <v>89</v>
       </c>
       <c r="D8" s="2">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>91</v>
       </c>
@@ -1461,13 +1475,13 @@
         <v>92</v>
       </c>
       <c r="D9" s="2">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>94</v>
       </c>
@@ -1478,13 +1492,13 @@
         <v>95</v>
       </c>
       <c r="D10" s="2">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>97</v>
       </c>
@@ -1495,13 +1509,13 @@
         <v>98</v>
       </c>
       <c r="D11" s="5">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>100</v>
       </c>
@@ -1512,13 +1526,13 @@
         <v>101</v>
       </c>
       <c r="D12" s="2">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>103</v>
       </c>
@@ -1529,13 +1543,13 @@
         <v>104</v>
       </c>
       <c r="D13" s="5">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
         <v>106</v>
       </c>
@@ -1546,7 +1560,7 @@
         <v>107</v>
       </c>
       <c r="D14" s="11">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="E14" s="15"/>
       <c r="F14" s="16"/>
@@ -1571,7 +1585,7 @@
       <c r="Y14" s="17"/>
       <c r="Z14" s="17"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>108</v>
       </c>
@@ -1582,11 +1596,11 @@
         <v>109</v>
       </c>
       <c r="D15" s="5">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="E15" s="6"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>110</v>
       </c>
@@ -1597,13 +1611,13 @@
         <v>111</v>
       </c>
       <c r="D16" s="2">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>113</v>
       </c>
@@ -1614,13 +1628,13 @@
         <v>114</v>
       </c>
       <c r="D17" s="2">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>116</v>
       </c>
@@ -1631,13 +1645,13 @@
         <v>117</v>
       </c>
       <c r="D18" s="2">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>119</v>
       </c>
@@ -1648,13 +1662,13 @@
         <v>120</v>
       </c>
       <c r="D19" s="2">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>122</v>
       </c>
@@ -1665,13 +1679,13 @@
         <v>123</v>
       </c>
       <c r="D20" s="2">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>125</v>
       </c>
@@ -1682,7 +1696,7 @@
         <v>126</v>
       </c>
       <c r="D21" s="18">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="E21" s="17"/>
       <c r="F21" s="17"/>
@@ -1707,7 +1721,7 @@
       <c r="Y21" s="17"/>
       <c r="Z21" s="17"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>127</v>
       </c>
@@ -1718,10 +1732,10 @@
         <v>128</v>
       </c>
       <c r="D22" s="5">
-        <v>45.0</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>129</v>
       </c>
@@ -1732,10 +1746,10 @@
         <v>130</v>
       </c>
       <c r="D23" s="11">
-        <v>46.0</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>131</v>
       </c>
@@ -1746,13 +1760,13 @@
         <v>132</v>
       </c>
       <c r="D24" s="2">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>134</v>
       </c>
@@ -1763,13 +1777,13 @@
         <v>135</v>
       </c>
       <c r="D25" s="2">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>137</v>
       </c>
@@ -1780,31 +1794,32 @@
         <v>138</v>
       </c>
       <c r="D26" s="5">
-        <v>49.0</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="52.13"/>
-    <col customWidth="1" min="6" max="6" width="56.75"/>
-    <col customWidth="1" min="9" max="9" width="57.0"/>
-    <col customWidth="1" min="12" max="12" width="70.63"/>
+    <col min="1" max="1" width="52.109375" customWidth="1"/>
+    <col min="6" max="6" width="56.77734375" customWidth="1"/>
+    <col min="9" max="9" width="57" customWidth="1"/>
+    <col min="12" max="12" width="70.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>139</v>
       </c>
@@ -1818,7 +1833,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" ht="124.5" customHeight="1">
+    <row r="2" spans="1:12" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>143</v>
       </c>
@@ -1832,7 +1847,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>147</v>
       </c>
@@ -1840,7 +1855,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>149</v>
       </c>
@@ -1848,31 +1863,31 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>151</v>
       </c>
       <c r="B5" s="2">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B6" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>153</v>
       </c>
       <c r="B7" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Assets/Cards/Cards.xlsx
+++ b/Assets/Cards/Cards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\LuckyThicket\Assets\Cards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B8F3018-C194-4C3E-BEC6-179E36B17AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7714718-85F4-4F58-9A40-AD97A0A0EFE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -127,9 +127,6 @@
   </si>
   <si>
     <t>Разблокируйте любую клетку</t>
-  </si>
-  <si>
-    <t>Free Select Magpie Spawn Free Select Unlock</t>
   </si>
   <si>
     <t>Сорока-ворчунья</t>
@@ -523,6 +520,9 @@
   </si>
   <si>
     <t>Free Select Magpie Spawn Draw Adjacent Free Select Destroy</t>
+  </si>
+  <si>
+    <t>Free Select Magpie Spawn Obstacle Occupied Select Unlock</t>
   </si>
 </sst>
 </file>
@@ -872,7 +872,7 @@
   <dimension ref="A1:Z26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1086,35 +1086,35 @@
         <v>11</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>35</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="D14" s="2">
         <v>12</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>40</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>41</v>
       </c>
       <c r="D15" s="11">
         <v>13</v>
@@ -1122,98 +1122,98 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="D16" s="2">
         <v>14</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="D17" s="2">
         <v>15</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="D18" s="2">
         <v>16</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="D19" s="2">
         <v>17</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="D20" s="2">
         <v>18</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>57</v>
       </c>
       <c r="D21" s="5">
         <v>19</v>
@@ -1221,19 +1221,19 @@
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="C22" s="12" t="s">
         <v>59</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>60</v>
       </c>
       <c r="D22" s="5">
         <v>20</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
@@ -1259,13 +1259,13 @@
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="D23" s="5">
         <v>21</v>
@@ -1273,13 +1273,13 @@
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="D24" s="5">
         <v>22</v>
@@ -1287,36 +1287,36 @@
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="D25" s="2">
         <v>23</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="D26" s="2">
         <v>24</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1331,7 +1331,9 @@
   </sheetPr>
   <dimension ref="A1:Z26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1340,67 +1342,67 @@
     <col min="5" max="5" width="108.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D2" s="2">
         <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="D3" s="2">
         <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="D4" s="2">
         <v>27</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
@@ -1410,12 +1412,12 @@
         <v>28</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -1427,137 +1429,137 @@
         <v>29</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="D7" s="2">
         <v>30</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="D8" s="2">
         <v>31</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="D9" s="2">
         <v>32</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="D10" s="2">
         <v>33</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="B11" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>97</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>98</v>
       </c>
       <c r="D11" s="5">
         <v>34</v>
       </c>
       <c r="E11" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="D12" s="2">
         <v>35</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="B13" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>103</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>104</v>
       </c>
       <c r="D13" s="5">
         <v>36</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>106</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>107</v>
       </c>
       <c r="D14" s="11">
         <v>37</v>
@@ -1585,115 +1587,115 @@
       <c r="Y14" s="17"/>
       <c r="Z14" s="17"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="D15" s="5">
         <v>38</v>
       </c>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="D16" s="2">
         <v>39</v>
       </c>
       <c r="E16" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="B17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="D17" s="2">
         <v>40</v>
       </c>
       <c r="E17" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="B18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="D18" s="2">
         <v>41</v>
       </c>
       <c r="E18" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="D19" s="2">
         <v>42</v>
       </c>
       <c r="E19" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="B20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="D20" s="2">
         <v>43</v>
       </c>
       <c r="E20" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+      <c r="B21" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="14" t="s">
         <v>125</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>126</v>
       </c>
       <c r="D21" s="18">
         <v>44</v>
@@ -1721,77 +1723,77 @@
       <c r="Y21" s="17"/>
       <c r="Z21" s="17"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>128</v>
       </c>
       <c r="D22" s="5">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="10" t="s">
         <v>129</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>130</v>
       </c>
       <c r="D23" s="11">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="D24" s="2">
         <v>47</v>
       </c>
       <c r="E24" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="B25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="D25" s="2">
         <v>48</v>
       </c>
       <c r="E25" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="B26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="12" t="s">
         <v>137</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>138</v>
       </c>
       <c r="D26" s="5">
         <v>49</v>
@@ -1821,51 +1823,51 @@
   <sheetData>
     <row r="1" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="I2" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="L2" s="20" t="s">
         <v>145</v>
-      </c>
-      <c r="L2" s="20" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B5" s="2">
         <v>6</v>
@@ -1873,7 +1875,7 @@
     </row>
     <row r="6" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B6" s="2">
         <v>3</v>
@@ -1881,7 +1883,7 @@
     </row>
     <row r="7" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>

--- a/Assets/Cards/Cards.xlsx
+++ b/Assets/Cards/Cards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\LuckyThicket\Assets\Cards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C37E815-467C-44DA-B462-DB5FF299C54B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D42C6C-7FBD-4635-AB8B-8EEF73774A5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -360,9 +360,6 @@
     <t>Ожидайте двух бобров на смежных клетках.</t>
   </si>
   <si>
-    <t>Создайте двух временных бобров на смежных клетках.</t>
-  </si>
-  <si>
     <t>Ожидайте сорочонка на случайной клетке.</t>
   </si>
   <si>
@@ -523,6 +520,9 @@
   </si>
   <si>
     <t>Создайте бобра на краю поля и уничтожьте сороку на краю поля.</t>
+  </si>
+  <si>
+    <t>Создайте двух бобров на смежных клетках. На следующем ходу отряды в этих клетках погибнут.</t>
   </si>
 </sst>
 </file>
@@ -935,7 +935,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D2" s="11">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D3" s="11">
         <v>1</v>
@@ -969,7 +969,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D4" s="11">
         <v>2</v>
@@ -986,13 +986,13 @@
         <v>4</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D5" s="11">
         <v>3</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1018,7 +1018,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D7" s="11">
         <v>5</v>
@@ -1035,7 +1035,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D8" s="11">
         <v>6</v>
@@ -1052,13 +1052,13 @@
         <v>4</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D9" s="11">
         <v>7</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1069,7 +1069,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D10" s="11">
         <v>8</v>
@@ -1086,7 +1086,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D11" s="11">
         <v>9</v>
@@ -1103,13 +1103,13 @@
         <v>4</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D12" s="11">
         <v>10</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1120,7 +1120,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D13" s="11">
         <v>11</v>
@@ -1137,7 +1137,7 @@
         <v>20</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D14" s="11">
         <v>12</v>
@@ -1154,7 +1154,7 @@
         <v>20</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D15" s="11">
         <v>13</v>
@@ -1171,7 +1171,7 @@
         <v>20</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D16" s="11">
         <v>14</v>
@@ -1188,7 +1188,7 @@
         <v>20</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D17" s="11">
         <v>15</v>
@@ -1205,7 +1205,7 @@
         <v>20</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D18" s="11">
         <v>16</v>
@@ -1222,7 +1222,7 @@
         <v>20</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D19" s="11">
         <v>17</v>
@@ -1239,13 +1239,13 @@
         <v>20</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D20" s="11">
         <v>18</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
@@ -1256,13 +1256,13 @@
         <v>20</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D21" s="11">
         <v>19</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
@@ -1273,13 +1273,13 @@
         <v>34</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D22" s="11">
         <v>20</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
@@ -1311,7 +1311,7 @@
         <v>34</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D23" s="11">
         <v>21</v>
@@ -1328,13 +1328,13 @@
         <v>34</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D24" s="11">
         <v>22</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
@@ -1345,7 +1345,7 @@
         <v>34</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D25" s="11">
         <v>23</v>
@@ -1362,13 +1362,13 @@
         <v>34</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D26" s="11">
         <v>24</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1388,7 +1388,7 @@
   <dimension ref="A1:Z26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1416,7 +1416,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D2" s="11">
         <v>25</v>
@@ -1433,7 +1433,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D3" s="11">
         <v>26</v>
@@ -1450,7 +1450,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D4" s="11">
         <v>27</v>
@@ -1482,13 +1482,13 @@
         <v>4</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D6" s="11">
         <v>29</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
@@ -1499,7 +1499,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D7" s="11">
         <v>30</v>
@@ -1516,7 +1516,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D8" s="11">
         <v>31</v>
@@ -1533,7 +1533,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D9" s="11">
         <v>32</v>
@@ -1550,7 +1550,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D10" s="11">
         <v>33</v>
@@ -1567,13 +1567,13 @@
         <v>4</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D11" s="14">
         <v>34</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
@@ -1584,7 +1584,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D12" s="11">
         <v>35</v>
@@ -1601,13 +1601,13 @@
         <v>4</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D13" s="14">
         <v>36</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1618,7 +1618,7 @@
         <v>20</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D14" s="20">
         <v>37</v>
@@ -1656,7 +1656,7 @@
         <v>20</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="D15" s="14">
         <v>38</v>
@@ -1673,7 +1673,7 @@
         <v>20</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D16" s="11">
         <v>39</v>
@@ -1690,7 +1690,7 @@
         <v>20</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D17" s="11">
         <v>40</v>
@@ -1707,13 +1707,13 @@
         <v>20</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D18" s="11">
         <v>41</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
@@ -1724,7 +1724,7 @@
         <v>20</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D19" s="11">
         <v>42</v>
@@ -1741,7 +1741,7 @@
         <v>20</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D20" s="11">
         <v>43</v>
@@ -1758,13 +1758,13 @@
         <v>20</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D21" s="25">
         <v>44</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
@@ -1796,7 +1796,7 @@
         <v>34</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D22" s="14">
         <v>45</v>
@@ -1830,7 +1830,7 @@
         <v>34</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D24" s="11">
         <v>47</v>
@@ -1847,7 +1847,7 @@
         <v>34</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D25" s="11">
         <v>48</v>

--- a/Assets/Cards/Cards.xlsx
+++ b/Assets/Cards/Cards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\LuckyThicket\Assets\Cards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D42C6C-7FBD-4635-AB8B-8EEF73774A5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8B5FD7-1666-4B1F-B824-125E7448FCEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -210,13 +210,7 @@
     <t>Бобёр-воин</t>
   </si>
   <si>
-    <t>Free Select Beaver Spawn CrossPlus Magpie Occupied Select Kill</t>
-  </si>
-  <si>
     <t>Бобёр-добряк</t>
-  </si>
-  <si>
-    <t>Free Select Beaver Spawn CrossPlus Free Select Beaver Spawn</t>
   </si>
   <si>
     <t>Бобёр-ученый</t>
@@ -524,16 +518,30 @@
   <si>
     <t>Создайте двух бобров на смежных клетках. На следующем ходу отряды в этих клетках погибнут.</t>
   </si>
+  <si>
+    <t>Free Select Beaver Spawn Adjacent Magpie Occupied Select Kill</t>
+  </si>
+  <si>
+    <t>Free Select Beaver Spawn Adjacent Free Select Beaver Spawn</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -651,43 +659,44 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -935,7 +944,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D2" s="11">
         <v>0</v>
@@ -952,7 +961,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D3" s="11">
         <v>1</v>
@@ -969,13 +978,13 @@
         <v>4</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D4" s="11">
         <v>2</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -986,13 +995,13 @@
         <v>4</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D5" s="11">
         <v>3</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1018,7 +1027,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D7" s="11">
         <v>5</v>
@@ -1035,7 +1044,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D8" s="11">
         <v>6</v>
@@ -1052,13 +1061,13 @@
         <v>4</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D9" s="11">
         <v>7</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1069,7 +1078,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D10" s="11">
         <v>8</v>
@@ -1080,13 +1089,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D11" s="11">
         <v>9</v>
@@ -1103,30 +1112,30 @@
         <v>4</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D12" s="11">
         <v>10</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D13" s="11">
         <v>11</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1137,7 +1146,7 @@
         <v>20</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D14" s="11">
         <v>12</v>
@@ -1154,13 +1163,13 @@
         <v>20</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D15" s="11">
         <v>13</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1171,7 +1180,7 @@
         <v>20</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D16" s="11">
         <v>14</v>
@@ -1188,7 +1197,7 @@
         <v>20</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D17" s="11">
         <v>15</v>
@@ -1205,7 +1214,7 @@
         <v>20</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D18" s="11">
         <v>16</v>
@@ -1222,7 +1231,7 @@
         <v>20</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D19" s="11">
         <v>17</v>
@@ -1239,13 +1248,13 @@
         <v>20</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D20" s="11">
         <v>18</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
@@ -1256,13 +1265,13 @@
         <v>20</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D21" s="11">
         <v>19</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
@@ -1273,13 +1282,13 @@
         <v>34</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D22" s="11">
         <v>20</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
@@ -1311,7 +1320,7 @@
         <v>34</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D23" s="11">
         <v>21</v>
@@ -1328,13 +1337,13 @@
         <v>34</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D24" s="11">
         <v>22</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
@@ -1345,7 +1354,7 @@
         <v>34</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D25" s="11">
         <v>23</v>
@@ -1362,13 +1371,13 @@
         <v>34</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D26" s="11">
         <v>24</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1388,7 +1397,7 @@
   <dimension ref="A1:Z26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1416,7 +1425,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D2" s="11">
         <v>25</v>
@@ -1433,7 +1442,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D3" s="11">
         <v>26</v>
@@ -1450,7 +1459,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D4" s="11">
         <v>27</v>
@@ -1482,13 +1491,13 @@
         <v>4</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D6" s="11">
         <v>29</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
@@ -1499,7 +1508,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D7" s="11">
         <v>30</v>
@@ -1510,13 +1519,13 @@
     </row>
     <row r="8" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D8" s="11">
         <v>31</v>
@@ -1533,7 +1542,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D9" s="11">
         <v>32</v>
@@ -1550,7 +1559,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D10" s="11">
         <v>33</v>
@@ -1567,24 +1576,24 @@
         <v>4</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D11" s="14">
         <v>34</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D12" s="11">
         <v>35</v>
@@ -1595,19 +1604,19 @@
     </row>
     <row r="13" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D13" s="14">
         <v>36</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1618,13 +1627,13 @@
         <v>20</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D14" s="20">
         <v>37</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="7"/>
@@ -1656,13 +1665,13 @@
         <v>20</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D15" s="14">
         <v>38</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
@@ -1672,99 +1681,99 @@
       <c r="B16" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="28" t="s">
-        <v>153</v>
+      <c r="C16" s="29" t="s">
+        <v>151</v>
       </c>
       <c r="D16" s="11">
         <v>39</v>
       </c>
-      <c r="E16" s="11" t="s">
-        <v>62</v>
+      <c r="E16" s="29" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="28" t="s">
-        <v>154</v>
+      <c r="C17" s="29" t="s">
+        <v>152</v>
       </c>
       <c r="D17" s="11">
         <v>40</v>
       </c>
-      <c r="E17" s="11" t="s">
-        <v>64</v>
+      <c r="E17" s="29" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D18" s="11">
         <v>41</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D19" s="11">
         <v>42</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D20" s="11">
         <v>43</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B21" s="22" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D21" s="25">
         <v>44</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
@@ -1790,87 +1799,87 @@
     </row>
     <row r="22" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>34</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D22" s="14">
         <v>45</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B23" s="19" t="s">
         <v>34</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D23" s="20">
         <v>46</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>34</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D24" s="11">
         <v>47</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>34</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D25" s="11">
         <v>48</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>34</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D26" s="14">
         <v>49</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1897,51 +1906,51 @@
   <sheetData>
     <row r="1" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B5" s="2">
         <v>6</v>
@@ -1949,7 +1958,7 @@
     </row>
     <row r="6" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B6" s="2">
         <v>3</v>
@@ -1957,7 +1966,7 @@
     </row>
     <row r="7" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>

--- a/Assets/Cards/Cards.xlsx
+++ b/Assets/Cards/Cards.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\LuckyThicket\Assets\Cards\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BBproj\LuckyThicket\Assets\Cards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8B5FD7-1666-4B1F-B824-125E7448FCEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF9BA80A-65B8-4260-83CB-732EC1E83245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Magpies" sheetId="1" r:id="rId1"/>
@@ -102,9 +102,6 @@
     <t>Сорока-таксист</t>
   </si>
   <si>
-    <t>Free Select Magpie Spawn Magpie Occupied ShiftAnchor Adjacent Free Select Drag ShiftAnchor Adjacent Free Select Drag</t>
-  </si>
-  <si>
     <t>Сорока-иллюзионист</t>
   </si>
   <si>
@@ -524,16 +521,27 @@
   <si>
     <t>Free Select Beaver Spawn Adjacent Free Select Beaver Spawn</t>
   </si>
+  <si>
+    <t>Free Select Magpie Spawn Magpie Occupied Select ShiftAnchor Adjacent Free Select Drag ShiftAnchor Adjacent Free Select Drag</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -659,43 +667,44 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
@@ -918,25 +927,25 @@
   </sheetPr>
   <dimension ref="A1:Z26"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.109375" customWidth="1"/>
+    <col min="1" max="1" width="21.08984375" customWidth="1"/>
     <col min="3" max="3" width="75" customWidth="1"/>
-    <col min="5" max="5" width="99.33203125" customWidth="1"/>
+    <col min="5" max="5" width="99.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -944,7 +953,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D2" s="11">
         <v>0</v>
@@ -953,7 +962,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>3</v>
       </c>
@@ -961,7 +970,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D3" s="11">
         <v>1</v>
@@ -970,7 +979,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>6</v>
       </c>
@@ -978,16 +987,16 @@
         <v>4</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D4" s="11">
         <v>2</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>7</v>
       </c>
@@ -995,16 +1004,16 @@
         <v>4</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D5" s="11">
         <v>3</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>8</v>
       </c>
@@ -1019,7 +1028,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>10</v>
       </c>
@@ -1027,7 +1036,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D7" s="11">
         <v>5</v>
@@ -1036,7 +1045,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>12</v>
       </c>
@@ -1044,7 +1053,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D8" s="11">
         <v>6</v>
@@ -1053,7 +1062,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>14</v>
       </c>
@@ -1061,16 +1070,16 @@
         <v>4</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D9" s="11">
         <v>7</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
         <v>15</v>
       </c>
@@ -1078,7 +1087,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D10" s="11">
         <v>8</v>
@@ -1087,15 +1096,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D11" s="11">
         <v>9</v>
@@ -1104,7 +1113,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>18</v>
       </c>
@@ -1112,33 +1121,33 @@
         <v>4</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D12" s="11">
         <v>10</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D13" s="11">
         <v>11</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>19</v>
       </c>
@@ -1146,7 +1155,7 @@
         <v>20</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D14" s="11">
         <v>12</v>
@@ -1155,7 +1164,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
         <v>22</v>
       </c>
@@ -1163,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D15" s="11">
         <v>13</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>23</v>
       </c>
@@ -1180,7 +1189,7 @@
         <v>20</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D16" s="11">
         <v>14</v>
@@ -1189,7 +1198,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>25</v>
       </c>
@@ -1197,98 +1206,98 @@
         <v>20</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D17" s="11">
         <v>15</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="30" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>27</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D18" s="11">
         <v>16</v>
       </c>
       <c r="E18" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>29</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D19" s="11">
         <v>17</v>
       </c>
       <c r="E19" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>31</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D20" s="11">
         <v>18</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B21" s="13" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D21" s="11">
         <v>19</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D22" s="11">
         <v>20</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
@@ -1312,72 +1321,72 @@
       <c r="Y22" s="6"/>
       <c r="Z22" s="6"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="14" t="s">
-        <v>34</v>
-      </c>
       <c r="C23" s="27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D23" s="11">
         <v>21</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D24" s="11">
         <v>22</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D25" s="11">
         <v>23</v>
       </c>
       <c r="E25" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="11" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
-        <v>40</v>
-      </c>
       <c r="B26" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D26" s="11">
         <v>24</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1396,81 +1405,81 @@
   </sheetPr>
   <dimension ref="A1:Z26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="8"/>
-    <col min="3" max="3" width="80.6640625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="8"/>
-    <col min="5" max="5" width="108.109375" style="8" customWidth="1"/>
-    <col min="6" max="16384" width="12.6640625" style="8"/>
+    <col min="1" max="1" width="19.453125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="12.6328125" style="8"/>
+    <col min="3" max="3" width="80.6328125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="12.6328125" style="8"/>
+    <col min="5" max="5" width="108.08984375" style="8" customWidth="1"/>
+    <col min="6" max="16384" width="12.6328125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="14" x14ac:dyDescent="0.3">
       <c r="A1" s="9"/>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
     </row>
-    <row r="2" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="14" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D2" s="11">
         <v>25</v>
       </c>
       <c r="E2" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="14" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>43</v>
-      </c>
       <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D3" s="11">
         <v>26</v>
       </c>
       <c r="E3" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="14" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>45</v>
-      </c>
       <c r="B4" s="12" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D4" s="11">
         <v>27</v>
       </c>
       <c r="E4" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="14" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>47</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>4</v>
@@ -1480,160 +1489,160 @@
         <v>28</v>
       </c>
       <c r="E5" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="14" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>49</v>
-      </c>
       <c r="B6" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D6" s="11">
         <v>29</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="14" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D7" s="11">
         <v>30</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="14" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D8" s="11">
         <v>31</v>
       </c>
       <c r="E8" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="14" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>53</v>
-      </c>
       <c r="B9" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D9" s="11">
         <v>32</v>
       </c>
       <c r="E9" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="14" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>55</v>
-      </c>
       <c r="B10" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D10" s="11">
         <v>33</v>
       </c>
       <c r="E10" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="14" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>57</v>
-      </c>
       <c r="B11" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D11" s="14">
         <v>34</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="14" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D12" s="11">
         <v>35</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="14" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D13" s="14">
         <v>36</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B14" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D14" s="20">
         <v>37</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="7"/>
@@ -1657,123 +1666,123 @@
       <c r="Y14" s="7"/>
       <c r="Z14" s="7"/>
     </row>
-    <row r="15" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="14" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D15" s="14">
         <v>38</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="14" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D16" s="11">
         <v>39</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" ht="14" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>20</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D17" s="11">
         <v>40</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" ht="14" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D18" s="11">
         <v>41</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" ht="14" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D19" s="11">
         <v>42</v>
       </c>
       <c r="E19" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" ht="14" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>66</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D20" s="11">
         <v>43</v>
       </c>
       <c r="E20" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" ht="14" x14ac:dyDescent="0.3">
+      <c r="A21" s="22" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
-        <v>68</v>
       </c>
       <c r="B21" s="22" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D21" s="25">
         <v>44</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
@@ -1797,89 +1806,89 @@
       <c r="Y21" s="7"/>
       <c r="Z21" s="7"/>
     </row>
-    <row r="22" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" ht="14" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D22" s="14">
         <v>45</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" ht="14" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D23" s="20">
         <v>46</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" ht="14" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D24" s="11">
         <v>47</v>
       </c>
       <c r="E24" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" ht="14" x14ac:dyDescent="0.3">
+      <c r="A25" s="11" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="25" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
-        <v>73</v>
-      </c>
       <c r="B25" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D25" s="11">
         <v>48</v>
       </c>
       <c r="E25" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" ht="14" x14ac:dyDescent="0.3">
+      <c r="A26" s="11" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="26" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
-        <v>75</v>
-      </c>
       <c r="B26" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D26" s="14">
         <v>49</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1896,77 +1905,77 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.109375" customWidth="1"/>
-    <col min="6" max="6" width="56.77734375" customWidth="1"/>
+    <col min="1" max="1" width="52.08984375" customWidth="1"/>
+    <col min="6" max="6" width="56.81640625" customWidth="1"/>
     <col min="9" max="9" width="57" customWidth="1"/>
-    <col min="12" max="12" width="70.6640625" customWidth="1"/>
+    <col min="12" max="12" width="70.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="L2" s="5" t="s">
+    </row>
+    <row r="3" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="2" t="s">
+    </row>
+    <row r="5" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="B5" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B6" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>

--- a/Assets/Cards/Cards.xlsx
+++ b/Assets/Cards/Cards.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BBproj\LuckyThicket\Assets\Cards\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\LuckyThicket\Assets\Cards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF9BA80A-65B8-4260-83CB-732EC1E83245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FDD497E-D190-409E-A067-8EA61F975C10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Magpies" sheetId="1" r:id="rId1"/>
@@ -111,9 +111,6 @@
     <t>Сорока-мастерица</t>
   </si>
   <si>
-    <t>Free Select Magpie Spawn Random Build Beaver Occupied Select Kill</t>
-  </si>
-  <si>
     <t>Сорока-белобока</t>
   </si>
   <si>
@@ -444,9 +441,6 @@
     <t>Создайте сороку на случайной клетке вокруг.</t>
   </si>
   <si>
-    <t>Постройте клетку в случайном месте и уничтожьте бобра по соседству.</t>
-  </si>
-  <si>
     <t>Возьмите карту и уничтожьте соседнюю свободную клетку.</t>
   </si>
   <si>
@@ -523,17 +517,31 @@
   </si>
   <si>
     <t>Free Select Magpie Spawn Magpie Occupied Select ShiftAnchor Adjacent Free Select Drag ShiftAnchor Adjacent Free Select Drag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Free Select Magpie Spawn Beaver Occupied Adjacent Select Kill Also NExisting Random Build </t>
+  </si>
+  <si>
+    <t>Уничтожьте бобра по соседству и постройте клетку в случайном месте.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -667,43 +675,44 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -927,25 +936,25 @@
   </sheetPr>
   <dimension ref="A1:Z26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.08984375" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" customWidth="1"/>
     <col min="3" max="3" width="75" customWidth="1"/>
-    <col min="5" max="5" width="99.36328125" customWidth="1"/>
+    <col min="5" max="5" width="99.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -953,7 +962,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D2" s="11">
         <v>0</v>
@@ -962,7 +971,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>3</v>
       </c>
@@ -970,7 +979,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D3" s="11">
         <v>1</v>
@@ -979,7 +988,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>6</v>
       </c>
@@ -987,16 +996,16 @@
         <v>4</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D4" s="11">
         <v>2</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>7</v>
       </c>
@@ -1004,16 +1013,16 @@
         <v>4</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D5" s="11">
         <v>3</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>8</v>
       </c>
@@ -1028,7 +1037,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>10</v>
       </c>
@@ -1036,7 +1045,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D7" s="11">
         <v>5</v>
@@ -1045,7 +1054,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>12</v>
       </c>
@@ -1053,7 +1062,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D8" s="11">
         <v>6</v>
@@ -1062,7 +1071,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>14</v>
       </c>
@@ -1070,16 +1079,16 @@
         <v>4</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D9" s="11">
         <v>7</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>15</v>
       </c>
@@ -1087,7 +1096,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D10" s="11">
         <v>8</v>
@@ -1096,15 +1105,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D11" s="11">
         <v>9</v>
@@ -1113,7 +1122,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>18</v>
       </c>
@@ -1121,33 +1130,33 @@
         <v>4</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D12" s="11">
         <v>10</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D13" s="11">
         <v>11</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>19</v>
       </c>
@@ -1155,7 +1164,7 @@
         <v>20</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D14" s="11">
         <v>12</v>
@@ -1164,7 +1173,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>22</v>
       </c>
@@ -1172,16 +1181,16 @@
         <v>20</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D15" s="11">
         <v>13</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>23</v>
       </c>
@@ -1189,7 +1198,7 @@
         <v>20</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D16" s="11">
         <v>14</v>
@@ -1198,7 +1207,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>25</v>
       </c>
@@ -1206,16 +1215,16 @@
         <v>20</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D17" s="11">
         <v>15</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>26</v>
       </c>
@@ -1223,7 +1232,7 @@
         <v>20</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D18" s="11">
         <v>16</v>
@@ -1232,72 +1241,72 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="28" t="s">
-        <v>136</v>
+      <c r="C19" s="31" t="s">
+        <v>162</v>
       </c>
       <c r="D19" s="11">
         <v>17</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="31" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
-        <v>30</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D20" s="11">
         <v>18</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21" s="13" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D21" s="11">
         <v>19</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D22" s="11">
         <v>20</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
@@ -1321,72 +1330,72 @@
       <c r="Y22" s="6"/>
       <c r="Z22" s="6"/>
     </row>
-    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="14" t="s">
-        <v>33</v>
-      </c>
       <c r="C23" s="27" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D23" s="11">
         <v>21</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D24" s="11">
         <v>22</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D25" s="11">
         <v>23</v>
       </c>
       <c r="E25" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="11" t="s">
-        <v>39</v>
-      </c>
       <c r="B26" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D26" s="11">
         <v>24</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1409,77 +1418,77 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.453125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="12.6328125" style="8"/>
-    <col min="3" max="3" width="80.6328125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="12.6328125" style="8"/>
-    <col min="5" max="5" width="108.08984375" style="8" customWidth="1"/>
-    <col min="6" max="16384" width="12.6328125" style="8"/>
+    <col min="1" max="1" width="19.44140625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="8"/>
+    <col min="3" max="3" width="80.6640625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="8"/>
+    <col min="5" max="5" width="108.109375" style="8" customWidth="1"/>
+    <col min="6" max="16384" width="12.6640625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A1" s="9"/>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
     </row>
-    <row r="2" spans="1:26" ht="14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D2" s="11">
         <v>25</v>
       </c>
       <c r="E2" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" ht="14" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
-        <v>42</v>
-      </c>
       <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D3" s="11">
         <v>26</v>
       </c>
       <c r="E3" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" ht="14" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
-        <v>44</v>
-      </c>
       <c r="B4" s="12" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D4" s="11">
         <v>27</v>
       </c>
       <c r="E4" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="14" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
-        <v>46</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>4</v>
@@ -1489,160 +1498,160 @@
         <v>28</v>
       </c>
       <c r="E5" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" ht="14" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
-        <v>48</v>
-      </c>
       <c r="B6" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D6" s="11">
         <v>29</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="14" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D7" s="11">
         <v>30</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="14" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D8" s="11">
         <v>31</v>
       </c>
       <c r="E8" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" ht="14" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
-        <v>52</v>
-      </c>
       <c r="B9" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D9" s="11">
         <v>32</v>
       </c>
       <c r="E9" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" ht="14" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
-        <v>54</v>
-      </c>
       <c r="B10" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D10" s="11">
         <v>33</v>
       </c>
       <c r="E10" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" ht="14" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
-        <v>56</v>
-      </c>
       <c r="B11" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D11" s="14">
         <v>34</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="14" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D12" s="11">
         <v>35</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="14" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D13" s="14">
         <v>36</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B14" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D14" s="20">
         <v>37</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="7"/>
@@ -1666,123 +1675,123 @@
       <c r="Y14" s="7"/>
       <c r="Z14" s="7"/>
     </row>
-    <row r="15" spans="1:26" ht="14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D15" s="14">
         <v>38</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" ht="14" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D16" s="11">
         <v>39</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" ht="14" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>20</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D17" s="11">
         <v>40</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" ht="14" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D18" s="11">
         <v>41</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" ht="14" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D19" s="11">
         <v>42</v>
       </c>
       <c r="E19" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" ht="14" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
-        <v>65</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D20" s="11">
         <v>43</v>
       </c>
       <c r="E20" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" ht="14" x14ac:dyDescent="0.3">
-      <c r="A21" s="22" t="s">
-        <v>67</v>
       </c>
       <c r="B21" s="22" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D21" s="25">
         <v>44</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
@@ -1806,89 +1815,89 @@
       <c r="Y21" s="7"/>
       <c r="Z21" s="7"/>
     </row>
-    <row r="22" spans="1:26" ht="14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D22" s="14">
         <v>45</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" ht="14" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D23" s="20">
         <v>46</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" ht="14" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D24" s="11">
         <v>47</v>
       </c>
       <c r="E24" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="25" spans="1:26" ht="14" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
-        <v>72</v>
-      </c>
       <c r="B25" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D25" s="11">
         <v>48</v>
       </c>
       <c r="E25" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="26" spans="1:26" ht="14" x14ac:dyDescent="0.3">
-      <c r="A26" s="11" t="s">
-        <v>74</v>
-      </c>
       <c r="B26" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D26" s="14">
         <v>49</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1905,77 +1914,77 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.08984375" customWidth="1"/>
-    <col min="6" max="6" width="56.81640625" customWidth="1"/>
+    <col min="1" max="1" width="52.109375" customWidth="1"/>
+    <col min="6" max="6" width="56.77734375" customWidth="1"/>
     <col min="9" max="9" width="57" customWidth="1"/>
-    <col min="12" max="12" width="70.6328125" customWidth="1"/>
+    <col min="12" max="12" width="70.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="L2" s="5" t="s">
+    </row>
+    <row r="3" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="2" t="s">
+    </row>
+    <row r="5" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="B5" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>

--- a/Assets/Cards/Cards.xlsx
+++ b/Assets/Cards/Cards.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\LuckyThicket\Assets\Cards\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BBproj\LuckyThicket\Assets\Cards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FDD497E-D190-409E-A067-8EA61F975C10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{045877F7-EA34-4FAD-A02B-AA3D5DF50AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Magpies" sheetId="1" r:id="rId1"/>
@@ -309,9 +309,6 @@
     <t>Free Select Magpie Spawn Free Random Await Magpie Spawn</t>
   </si>
   <si>
-    <t>Free Select Beaver Spawn Completed Count Zero Playable Occupied Inc Inc Convert</t>
-  </si>
-  <si>
     <t>Free Select Beaver Spawn Adjacent Free Select Await Beaver Spawn Adjacent Free Select Await Beaver Spawn</t>
   </si>
   <si>
@@ -523,17 +520,28 @@
   </si>
   <si>
     <t>Уничтожьте бобра по соседству и постройте клетку в случайном месте.</t>
+  </si>
+  <si>
+    <t>Free Select Beaver Spawn Completed Zero Playable Occupied Inc Inc Convert</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -675,43 +683,44 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -936,25 +945,25 @@
   </sheetPr>
   <dimension ref="A1:Z26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.109375" customWidth="1"/>
+    <col min="1" max="1" width="21.08984375" customWidth="1"/>
     <col min="3" max="3" width="75" customWidth="1"/>
-    <col min="5" max="5" width="99.33203125" customWidth="1"/>
+    <col min="5" max="5" width="99.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -962,7 +971,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D2" s="11">
         <v>0</v>
@@ -971,7 +980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>3</v>
       </c>
@@ -979,7 +988,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D3" s="11">
         <v>1</v>
@@ -988,7 +997,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>6</v>
       </c>
@@ -996,7 +1005,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D4" s="11">
         <v>2</v>
@@ -1005,7 +1014,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>7</v>
       </c>
@@ -1013,16 +1022,16 @@
         <v>4</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D5" s="11">
         <v>3</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>8</v>
       </c>
@@ -1037,7 +1046,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>10</v>
       </c>
@@ -1045,7 +1054,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D7" s="11">
         <v>5</v>
@@ -1054,7 +1063,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>12</v>
       </c>
@@ -1062,7 +1071,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D8" s="11">
         <v>6</v>
@@ -1071,7 +1080,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>14</v>
       </c>
@@ -1079,16 +1088,16 @@
         <v>4</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D9" s="11">
         <v>7</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
         <v>15</v>
       </c>
@@ -1096,7 +1105,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D10" s="11">
         <v>8</v>
@@ -1105,15 +1114,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D11" s="11">
         <v>9</v>
@@ -1122,7 +1131,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>18</v>
       </c>
@@ -1130,24 +1139,24 @@
         <v>4</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D12" s="11">
         <v>10</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D13" s="11">
         <v>11</v>
@@ -1156,7 +1165,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>19</v>
       </c>
@@ -1164,7 +1173,7 @@
         <v>20</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D14" s="11">
         <v>12</v>
@@ -1173,7 +1182,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
         <v>22</v>
       </c>
@@ -1181,16 +1190,16 @@
         <v>20</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D15" s="11">
         <v>13</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>23</v>
       </c>
@@ -1198,7 +1207,7 @@
         <v>20</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D16" s="11">
         <v>14</v>
@@ -1207,7 +1216,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>25</v>
       </c>
@@ -1215,16 +1224,16 @@
         <v>20</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D17" s="11">
         <v>15</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>26</v>
       </c>
@@ -1232,7 +1241,7 @@
         <v>20</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D18" s="11">
         <v>16</v>
@@ -1241,7 +1250,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>28</v>
       </c>
@@ -1249,16 +1258,16 @@
         <v>20</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D19" s="11">
         <v>17</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>29</v>
       </c>
@@ -1266,16 +1275,16 @@
         <v>20</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D20" s="11">
         <v>18</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
         <v>34</v>
       </c>
@@ -1283,16 +1292,16 @@
         <v>20</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D21" s="11">
         <v>19</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
         <v>30</v>
       </c>
@@ -1300,13 +1309,13 @@
         <v>32</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D22" s="11">
         <v>20</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
@@ -1330,7 +1339,7 @@
       <c r="Y22" s="6"/>
       <c r="Z22" s="6"/>
     </row>
-    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
         <v>31</v>
       </c>
@@ -1338,7 +1347,7 @@
         <v>32</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D23" s="11">
         <v>21</v>
@@ -1347,7 +1356,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
         <v>35</v>
       </c>
@@ -1355,16 +1364,16 @@
         <v>32</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D24" s="11">
         <v>22</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>36</v>
       </c>
@@ -1372,7 +1381,7 @@
         <v>32</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D25" s="11">
         <v>23</v>
@@ -1381,7 +1390,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>38</v>
       </c>
@@ -1389,13 +1398,13 @@
         <v>32</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D26" s="11">
         <v>24</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1414,28 +1423,28 @@
   </sheetPr>
   <dimension ref="A1:Z26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="8"/>
-    <col min="3" max="3" width="80.6640625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="8"/>
-    <col min="5" max="5" width="108.109375" style="8" customWidth="1"/>
-    <col min="6" max="16384" width="12.6640625" style="8"/>
+    <col min="1" max="1" width="19.453125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="12.6328125" style="8"/>
+    <col min="3" max="3" width="80.6328125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="12.6328125" style="8"/>
+    <col min="5" max="5" width="108.08984375" style="8" customWidth="1"/>
+    <col min="6" max="16384" width="12.6328125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="14" x14ac:dyDescent="0.3">
       <c r="A1" s="9"/>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
     </row>
-    <row r="2" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="14" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>39</v>
       </c>
@@ -1443,7 +1452,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D2" s="11">
         <v>25</v>
@@ -1452,7 +1461,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="14" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>41</v>
       </c>
@@ -1460,7 +1469,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D3" s="11">
         <v>26</v>
@@ -1469,7 +1478,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="14" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>43</v>
       </c>
@@ -1477,7 +1486,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D4" s="11">
         <v>27</v>
@@ -1486,7 +1495,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="14" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>45</v>
       </c>
@@ -1501,7 +1510,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="14" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>47</v>
       </c>
@@ -1509,16 +1518,16 @@
         <v>4</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D6" s="11">
         <v>29</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="14" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>48</v>
       </c>
@@ -1526,7 +1535,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D7" s="11">
         <v>30</v>
@@ -1535,15 +1544,15 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="14" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D8" s="11">
         <v>31</v>
@@ -1552,7 +1561,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="14" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>51</v>
       </c>
@@ -1560,7 +1569,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D9" s="11">
         <v>32</v>
@@ -1569,7 +1578,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="14" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>53</v>
       </c>
@@ -1577,7 +1586,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D10" s="11">
         <v>33</v>
@@ -1586,7 +1595,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="14" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>55</v>
       </c>
@@ -1594,24 +1603,24 @@
         <v>4</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D11" s="14">
         <v>34</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="14" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D12" s="11">
         <v>35</v>
@@ -1620,24 +1629,24 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="14" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D13" s="14">
         <v>36</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
         <v>57</v>
       </c>
@@ -1645,13 +1654,13 @@
         <v>20</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D14" s="20">
         <v>37</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="7"/>
@@ -1675,7 +1684,7 @@
       <c r="Y14" s="7"/>
       <c r="Z14" s="7"/>
     </row>
-    <row r="15" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="14" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
         <v>58</v>
       </c>
@@ -1683,16 +1692,16 @@
         <v>20</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D15" s="14">
         <v>38</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="14" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>59</v>
       </c>
@@ -1700,16 +1709,16 @@
         <v>20</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D16" s="11">
         <v>39</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" ht="14" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>60</v>
       </c>
@@ -1717,16 +1726,16 @@
         <v>20</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D17" s="11">
         <v>40</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" ht="14" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>61</v>
       </c>
@@ -1734,16 +1743,16 @@
         <v>20</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D18" s="11">
         <v>41</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" ht="14" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>62</v>
       </c>
@@ -1751,7 +1760,7 @@
         <v>20</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D19" s="11">
         <v>42</v>
@@ -1760,7 +1769,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" ht="14" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>64</v>
       </c>
@@ -1768,7 +1777,7 @@
         <v>20</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D20" s="11">
         <v>43</v>
@@ -1777,7 +1786,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" ht="14" x14ac:dyDescent="0.3">
       <c r="A21" s="22" t="s">
         <v>66</v>
       </c>
@@ -1785,13 +1794,13 @@
         <v>20</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D21" s="25">
         <v>44</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
@@ -1815,7 +1824,7 @@
       <c r="Y21" s="7"/>
       <c r="Z21" s="7"/>
     </row>
-    <row r="22" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" ht="14" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>67</v>
       </c>
@@ -1823,16 +1832,16 @@
         <v>32</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D22" s="14">
         <v>45</v>
       </c>
-      <c r="E22" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="E22" s="32" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" ht="14" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>68</v>
       </c>
@@ -1840,16 +1849,16 @@
         <v>32</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D23" s="20">
         <v>46</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" ht="14" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>69</v>
       </c>
@@ -1857,7 +1866,7 @@
         <v>32</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D24" s="11">
         <v>47</v>
@@ -1866,7 +1875,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" ht="14" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>71</v>
       </c>
@@ -1874,7 +1883,7 @@
         <v>32</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D25" s="11">
         <v>48</v>
@@ -1883,7 +1892,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="14" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>73</v>
       </c>
@@ -1891,13 +1900,13 @@
         <v>32</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D26" s="14">
         <v>49</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1914,15 +1923,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.109375" customWidth="1"/>
-    <col min="6" max="6" width="56.77734375" customWidth="1"/>
+    <col min="1" max="1" width="52.08984375" customWidth="1"/>
+    <col min="6" max="6" width="56.81640625" customWidth="1"/>
     <col min="9" max="9" width="57" customWidth="1"/>
-    <col min="12" max="12" width="70.6640625" customWidth="1"/>
+    <col min="12" max="12" width="70.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>74</v>
       </c>
@@ -1950,7 +1959,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>82</v>
       </c>
@@ -1958,7 +1967,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>84</v>
       </c>
@@ -1966,7 +1975,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>86</v>
       </c>
@@ -1974,7 +1983,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>87</v>
       </c>
@@ -1982,7 +1991,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>88</v>
       </c>

--- a/Assets/Cards/Cards.xlsx
+++ b/Assets/Cards/Cards.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BBproj\LuckyThicket\Assets\Cards\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\LuckyThicket\Assets\Cards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{045877F7-EA34-4FAD-A02B-AA3D5DF50AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC782A1-9BE0-45B6-944A-8D5DE366CC2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Magpies" sheetId="1" r:id="rId1"/>
@@ -39,9 +39,6 @@
     <t>обычная</t>
   </si>
   <si>
-    <t>Free Select Magpie Spawn Random Destroy</t>
-  </si>
-  <si>
     <t>Сорока-акушер</t>
   </si>
   <si>
@@ -105,9 +102,6 @@
     <t>Сорока-иллюзионист</t>
   </si>
   <si>
-    <t>Free Select Magpie Spawn Free Surrounding Random Magpie Spawn</t>
-  </si>
-  <si>
     <t>Сорока-мастерица</t>
   </si>
   <si>
@@ -135,9 +129,6 @@
     <t>Сорока-ниндзя</t>
   </si>
   <si>
-    <t>Free Select Magpie Spawn Beaver Occupied Random Kill Beaver Occupied Random Kill</t>
-  </si>
-  <si>
     <t>Сорока-вестница</t>
   </si>
   <si>
@@ -180,9 +171,6 @@
     <t>Бобёр-волшебник</t>
   </si>
   <si>
-    <t>Free Select Beaver Spawn Random Beaver Spawn</t>
-  </si>
-  <si>
     <t>Бобёр-дуболом</t>
   </si>
   <si>
@@ -232,9 +220,6 @@
   </si>
   <si>
     <t>Бобёр-камикадзе</t>
-  </si>
-  <si>
-    <t>Free Select Beaver Spawn Beaver Occupied Random Kill Magpie Occupied Select Kill Magpie Occupied Select Kill</t>
   </si>
   <si>
     <t>Бобёр-бродяга</t>
@@ -306,18 +291,12 @@
     <t>Free Select Magpie Spawn Obstacle Occupied Select Unlock</t>
   </si>
   <si>
-    <t>Free Select Magpie Spawn Free Random Await Magpie Spawn</t>
-  </si>
-  <si>
     <t>Free Select Beaver Spawn Adjacent Free Select Await Beaver Spawn Adjacent Free Select Await Beaver Spawn</t>
   </si>
   <si>
     <t>Free Select Beaver Spawn Playable Occupied Select ShiftAnchor NExisting Select Build Drag</t>
   </si>
   <si>
-    <t>Free Select Beaver Spawn Adjacent Free Select Temp Beaver Spawn Adjacent Free Select Temp Beaver Spawn</t>
-  </si>
-  <si>
     <t>Free Select Magpie Spawn Opponent Hand Discard</t>
   </si>
   <si>
@@ -516,24 +495,61 @@
     <t>Free Select Magpie Spawn Magpie Occupied Select ShiftAnchor Adjacent Free Select Drag ShiftAnchor Adjacent Free Select Drag</t>
   </si>
   <si>
-    <t xml:space="preserve">Free Select Magpie Spawn Beaver Occupied Adjacent Select Kill Also NExisting Random Build </t>
-  </si>
-  <si>
     <t>Уничтожьте бобра по соседству и постройте клетку в случайном месте.</t>
   </si>
   <si>
     <t>Free Select Beaver Spawn Completed Zero Playable Occupied Inc Inc Convert</t>
+  </si>
+  <si>
+    <t>Free Select Beaver Spawn Inc Beaver Spawn</t>
+  </si>
+  <si>
+    <t>Free Select Beaver Spawn Adjacent Free Select Beaver Spawn Temp Kill Adjacent Free Select Beaver Spawn Temp Kill</t>
+  </si>
+  <si>
+    <t>Free Select Beaver Spawn Beaver Occupied Inc Kill Magpie Occupied Select Kill Magpie Occupied Select Kill</t>
+  </si>
+  <si>
+    <t>Free Select Magpie Spawn Inc Destroy</t>
+  </si>
+  <si>
+    <t>Free Select Magpie Spawn Beaver Occupied Inc Inc Kill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Free Select Magpie Spawn Beaver Occupied Adjacent Select Kill Also NExisting Inc Build </t>
+  </si>
+  <si>
+    <t>Free Select Magpie Spawn Free Await Magpie Inc Spawn</t>
+  </si>
+  <si>
+    <t>Free Select Magpie Spawn Free Surrounding Magpie Inc Spawn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -683,47 +699,50 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -945,25 +964,25 @@
   </sheetPr>
   <dimension ref="A1:Z26"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.08984375" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" customWidth="1"/>
     <col min="3" max="3" width="75" customWidth="1"/>
-    <col min="5" max="5" width="99.36328125" customWidth="1"/>
+    <col min="5" max="5" width="118.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -971,7 +990,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D2" s="11">
         <v>0</v>
@@ -980,7 +999,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>3</v>
       </c>
@@ -988,334 +1007,334 @@
         <v>4</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D3" s="11">
         <v>1</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="32" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
-        <v>6</v>
-      </c>
       <c r="B4" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D4" s="11">
         <v>2</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E4" s="34" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D5" s="11">
         <v>3</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="11">
+        <v>4</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="11">
-        <v>4</v>
-      </c>
-      <c r="E6" s="11" t="s">
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
-        <v>10</v>
-      </c>
       <c r="B7" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D7" s="11">
         <v>5</v>
       </c>
       <c r="E7" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
-        <v>12</v>
-      </c>
       <c r="B8" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D8" s="11">
         <v>6</v>
       </c>
       <c r="E8" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
-        <v>14</v>
-      </c>
       <c r="B9" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D9" s="11">
         <v>7</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
-        <v>15</v>
+      <c r="E9" s="32" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D10" s="11">
         <v>8</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D11" s="11">
         <v>9</v>
       </c>
       <c r="E11" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
-        <v>18</v>
-      </c>
       <c r="B12" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="28" t="s">
-        <v>127</v>
+      <c r="C12" s="27" t="s">
+        <v>120</v>
       </c>
       <c r="D12" s="11">
         <v>10</v>
       </c>
-      <c r="E12" s="18" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E12" s="17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="28" t="s">
-        <v>128</v>
+      <c r="C13" s="27" t="s">
+        <v>121</v>
       </c>
       <c r="D13" s="11">
         <v>11</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>129</v>
+      <c r="C14" s="27" t="s">
+        <v>122</v>
       </c>
       <c r="D14" s="11">
         <v>12</v>
       </c>
       <c r="E14" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>130</v>
+      <c r="B15" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>123</v>
       </c>
       <c r="D15" s="11">
         <v>13</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D16" s="11">
         <v>14</v>
       </c>
       <c r="E16" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
-        <v>25</v>
-      </c>
       <c r="B17" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D17" s="11">
         <v>15</v>
       </c>
-      <c r="E17" s="30" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E17" s="29" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>133</v>
+        <v>19</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>126</v>
       </c>
       <c r="D18" s="11">
         <v>16</v>
       </c>
-      <c r="E18" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="35" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="31" t="s">
-        <v>161</v>
+        <v>19</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>153</v>
       </c>
       <c r="D19" s="11">
         <v>17</v>
       </c>
-      <c r="E19" s="31" t="s">
+      <c r="E19" s="32" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="28" t="s">
-        <v>134</v>
+        <v>19</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>127</v>
       </c>
       <c r="D20" s="11">
         <v>18</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D21" s="11">
         <v>19</v>
       </c>
-      <c r="E21" s="28" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E21" s="27" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>123</v>
+      <c r="C22" s="26" t="s">
+        <v>116</v>
       </c>
       <c r="D22" s="11">
         <v>20</v>
       </c>
-      <c r="E22" s="28" t="s">
-        <v>124</v>
+      <c r="E22" s="32" t="s">
+        <v>117</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
@@ -1339,72 +1358,72 @@
       <c r="Y22" s="6"/>
       <c r="Z22" s="6"/>
     </row>
-    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>135</v>
+        <v>30</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>128</v>
       </c>
       <c r="D23" s="11">
         <v>21</v>
       </c>
       <c r="E23" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="13" t="s">
-        <v>35</v>
-      </c>
       <c r="B24" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D24" s="11">
         <v>22</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="28" t="s">
-        <v>137</v>
+        <v>30</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>130</v>
       </c>
       <c r="D25" s="11">
         <v>23</v>
       </c>
-      <c r="E25" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E25" s="32" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="28" t="s">
-        <v>138</v>
+        <v>30</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>131</v>
       </c>
       <c r="D26" s="11">
         <v>24</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1423,244 +1442,244 @@
   </sheetPr>
   <dimension ref="A1:Z26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.453125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="12.6328125" style="8"/>
-    <col min="3" max="3" width="80.6328125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="12.6328125" style="8"/>
-    <col min="5" max="5" width="108.08984375" style="8" customWidth="1"/>
-    <col min="6" max="16384" width="12.6328125" style="8"/>
+    <col min="1" max="1" width="19.44140625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="8"/>
+    <col min="3" max="3" width="80.6640625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="8"/>
+    <col min="5" max="5" width="108.109375" style="8" customWidth="1"/>
+    <col min="6" max="16384" width="12.6640625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A1" s="9"/>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
     </row>
-    <row r="2" spans="1:26" ht="14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="28" t="s">
-        <v>139</v>
+      <c r="C2" s="27" t="s">
+        <v>132</v>
       </c>
       <c r="D2" s="11">
         <v>25</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="14" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="28" t="s">
-        <v>140</v>
+      <c r="C3" s="27" t="s">
+        <v>133</v>
       </c>
       <c r="D3" s="11">
         <v>26</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="14" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D4" s="11">
         <v>27</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="14" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="21"/>
+      <c r="C5" s="20"/>
       <c r="D5" s="11">
         <v>28</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="14" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="28" t="s">
-        <v>109</v>
+      <c r="C6" s="27" t="s">
+        <v>102</v>
       </c>
       <c r="D6" s="11">
         <v>29</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="14" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="28" t="s">
-        <v>141</v>
+      <c r="C7" s="27" t="s">
+        <v>134</v>
       </c>
       <c r="D7" s="11">
         <v>30</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="14" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="28" t="s">
-        <v>142</v>
+      <c r="C8" s="27" t="s">
+        <v>135</v>
       </c>
       <c r="D8" s="11">
         <v>31</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="14" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="28" t="s">
-        <v>143</v>
+      <c r="C9" s="27" t="s">
+        <v>136</v>
       </c>
       <c r="D9" s="11">
         <v>32</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="14" x14ac:dyDescent="0.3">
+      <c r="E9" s="32" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="28" t="s">
-        <v>107</v>
+      <c r="C10" s="27" t="s">
+        <v>100</v>
       </c>
       <c r="D10" s="11">
         <v>33</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="14" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="27" t="s">
-        <v>130</v>
+      <c r="C11" s="26" t="s">
+        <v>123</v>
       </c>
       <c r="D11" s="14">
         <v>34</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="14" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="28" t="s">
-        <v>144</v>
+      <c r="C12" s="27" t="s">
+        <v>137</v>
       </c>
       <c r="D12" s="11">
         <v>35</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="14" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="27" t="s">
-        <v>145</v>
+      <c r="C13" s="26" t="s">
+        <v>138</v>
       </c>
       <c r="D13" s="14">
         <v>36</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="D14" s="20">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="D14" s="19">
         <v>37</v>
       </c>
-      <c r="E14" s="24" t="s">
-        <v>92</v>
+      <c r="E14" s="23" t="s">
+        <v>86</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="7"/>
@@ -1684,123 +1703,123 @@
       <c r="Y14" s="7"/>
       <c r="Z14" s="7"/>
     </row>
-    <row r="15" spans="1:26" ht="14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D15" s="14">
         <v>38</v>
       </c>
-      <c r="E15" s="15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" ht="14" x14ac:dyDescent="0.3">
+      <c r="E15" s="33" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>147</v>
+        <v>19</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>140</v>
       </c>
       <c r="D16" s="11">
         <v>39</v>
       </c>
-      <c r="E16" s="29" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" ht="14" x14ac:dyDescent="0.3">
+      <c r="E16" s="28" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>148</v>
+        <v>19</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>141</v>
       </c>
       <c r="D17" s="11">
         <v>40</v>
       </c>
-      <c r="E17" s="29" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" ht="14" x14ac:dyDescent="0.3">
+      <c r="E17" s="28" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>149</v>
+        <v>19</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>142</v>
       </c>
       <c r="D18" s="11">
         <v>41</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" ht="14" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="28" t="s">
-        <v>150</v>
+        <v>19</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>143</v>
       </c>
       <c r="D19" s="11">
         <v>42</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" ht="14" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="28" t="s">
-        <v>151</v>
+        <v>19</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>144</v>
       </c>
       <c r="D20" s="11">
         <v>43</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" ht="14" x14ac:dyDescent="0.3">
-      <c r="A21" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="D21" s="25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="D21" s="24">
         <v>44</v>
       </c>
-      <c r="E21" s="26" t="s">
-        <v>122</v>
+      <c r="E21" s="25" t="s">
+        <v>115</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
@@ -1824,89 +1843,89 @@
       <c r="Y21" s="7"/>
       <c r="Z21" s="7"/>
     </row>
-    <row r="22" spans="1:26" ht="14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D22" s="14">
         <v>45</v>
       </c>
-      <c r="E22" s="32" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" ht="14" x14ac:dyDescent="0.3">
+      <c r="E22" s="31" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="D23" s="20">
+        <v>64</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="19">
         <v>46</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" ht="14" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>154</v>
+        <v>30</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>147</v>
       </c>
       <c r="D24" s="11">
         <v>47</v>
       </c>
-      <c r="E24" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" ht="14" x14ac:dyDescent="0.3">
+      <c r="E24" s="32" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="28" t="s">
-        <v>155</v>
+        <v>30</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>148</v>
       </c>
       <c r="D25" s="11">
         <v>48</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" ht="14" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D26" s="14">
         <v>49</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1923,77 +1942,77 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.08984375" customWidth="1"/>
-    <col min="6" max="6" width="56.81640625" customWidth="1"/>
+    <col min="1" max="1" width="52.109375" customWidth="1"/>
+    <col min="6" max="6" width="56.77734375" customWidth="1"/>
     <col min="9" max="9" width="57" customWidth="1"/>
-    <col min="12" max="12" width="70.6328125" customWidth="1"/>
+    <col min="12" max="12" width="70.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="5" t="s">
+    </row>
+    <row r="4" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="L2" s="5" t="s">
+    </row>
+    <row r="5" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="B5" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B6" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>

--- a/Assets/Cards/Cards.xlsx
+++ b/Assets/Cards/Cards.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BBproj\LuckyThicket\Assets\Cards\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\LuckyThicket\Assets\Cards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{045877F7-EA34-4FAD-A02B-AA3D5DF50AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD466ABA-5268-43FE-AAF5-A2021F5C57EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Magpies" sheetId="1" r:id="rId1"/>
@@ -96,9 +96,6 @@
     <t>Сорока-болтунья</t>
   </si>
   <si>
-    <t>Free Select Magpie Spawn Beaver Occupied Select Magpie Convert</t>
-  </si>
-  <si>
     <t>Сорока-таксист</t>
   </si>
   <si>
@@ -306,18 +303,9 @@
     <t>Free Select Magpie Spawn Obstacle Occupied Select Unlock</t>
   </si>
   <si>
-    <t>Free Select Magpie Spawn Free Random Await Magpie Spawn</t>
-  </si>
-  <si>
-    <t>Free Select Beaver Spawn Adjacent Free Select Await Beaver Spawn Adjacent Free Select Await Beaver Spawn</t>
-  </si>
-  <si>
     <t>Free Select Beaver Spawn Playable Occupied Select ShiftAnchor NExisting Select Build Drag</t>
   </si>
   <si>
-    <t>Free Select Beaver Spawn Adjacent Free Select Temp Beaver Spawn Adjacent Free Select Temp Beaver Spawn</t>
-  </si>
-  <si>
     <t>Free Select Magpie Spawn Opponent Hand Discard</t>
   </si>
   <si>
@@ -342,21 +330,12 @@
     <t>Бобёр-бармен</t>
   </si>
   <si>
-    <t>Ожидайте двух бобров на смежных клетках.</t>
-  </si>
-  <si>
-    <t>Ожидайте сорочонка на случайной клетке.</t>
-  </si>
-  <si>
     <t>Создайте трёх сорочат на краю поля.</t>
   </si>
   <si>
     <t>Вы уничтожаете случайную клетку (вместе с отрядом).</t>
   </si>
   <si>
-    <t>Вы берете случайную карту из сброса.</t>
-  </si>
-  <si>
     <t>Уничтожьте свободную клетку.</t>
   </si>
   <si>
@@ -378,15 +357,9 @@
     <t>Free Select Magpie Spawn Player Deck Draw</t>
   </si>
   <si>
-    <t>Free Select Magpie Spawn Player Deck Draw Draw Draw Draw Also Player Hand Discard Discard Discard</t>
-  </si>
-  <si>
     <t>Free Select Magpie Spawn Player Deck Draw Adjacent Free Select Destroy</t>
   </si>
   <si>
-    <t>Free Select Magpie Spawn Playable Occupied Select Kill Playable Occupied Adjacent Count Player Deck Draw</t>
-  </si>
-  <si>
     <t>Free Select Magpie Spawn Player Deck Draw Draw Draw Draw</t>
   </si>
   <si>
@@ -417,21 +390,12 @@
     <t>Free Select Magpie Spawn Obstacle Occupied Select Unlock Magpie Spawn</t>
   </si>
   <si>
-    <t>Возьмите 4 карты, а затем сбросьте 3.</t>
-  </si>
-  <si>
     <t>Разблокируйте клетку.</t>
   </si>
   <si>
     <t>Заблокируйте две клетки.</t>
   </si>
   <si>
-    <t>Противник сбрасывает карту.</t>
-  </si>
-  <si>
-    <t>Обратите бобра в сороку.</t>
-  </si>
-  <si>
     <t>Дважды передвиньте сороку.</t>
   </si>
   <si>
@@ -441,12 +405,6 @@
     <t>Возьмите карту и уничтожьте соседнюю свободную клетку.</t>
   </si>
   <si>
-    <t>Поменяйте фракцию смежного отряда.</t>
-  </si>
-  <si>
-    <t>Уничтожьте отряд и возьмите карту за каждый смежный с ним.</t>
-  </si>
-  <si>
     <t>Уничтожьте двух случайных бобров.</t>
   </si>
   <si>
@@ -471,9 +429,6 @@
     <t>Заблокируйте клетку.</t>
   </si>
   <si>
-    <t>Сбросьте две карты и уничтожьте сороку.</t>
-  </si>
-  <si>
     <t>Выберите отряд. Создайте клетку и переместите на неё выбранный отряд.</t>
   </si>
   <si>
@@ -495,18 +450,12 @@
     <t>Вы с противником берёте по две карты.</t>
   </si>
   <si>
-    <t>Если вы не выполняли задач, два случайных отряда меняют фракцию.</t>
-  </si>
-  <si>
     <t>Уничтожьте случайного бобра и двух сорок.</t>
   </si>
   <si>
     <t>Создайте бобра на краю поля и уничтожьте сороку на краю поля.</t>
   </si>
   <si>
-    <t>Создайте двух бобров на смежных клетках. На следующем ходу отряды в этих клетках погибнут.</t>
-  </si>
-  <si>
     <t>Free Select Beaver Spawn Adjacent Magpie Occupied Select Kill</t>
   </si>
   <si>
@@ -516,32 +465,75 @@
     <t>Free Select Magpie Spawn Magpie Occupied Select ShiftAnchor Adjacent Free Select Drag ShiftAnchor Adjacent Free Select Drag</t>
   </si>
   <si>
-    <t xml:space="preserve">Free Select Magpie Spawn Beaver Occupied Adjacent Select Kill Also NExisting Random Build </t>
-  </si>
-  <si>
-    <t>Уничтожьте бобра по соседству и постройте клетку в случайном месте.</t>
-  </si>
-  <si>
-    <t>Free Select Beaver Spawn Completed Zero Playable Occupied Inc Inc Convert</t>
+    <t>Сбросьте две случайные карты и уничтожьте сороку.</t>
+  </si>
+  <si>
+    <t>Противник сбрасывает случайную карту.</t>
+  </si>
+  <si>
+    <t>Создайте бобра на смежной клетке, а затем ещё одного в случайном месте.</t>
+  </si>
+  <si>
+    <t>Free Select Beaver Spawn Adjacent Free Select Beaver Spawn Free Random Beaver Spawn</t>
+  </si>
+  <si>
+    <t>Оттолкните все отряды по соседству и уничтожьте сороку.</t>
+  </si>
+  <si>
+    <t>Free Select Beaver Spawn Playable Occupied Adjacent All Push Magpie Occupied Select Kill</t>
+  </si>
+  <si>
+    <t>Заблокируйте две клетки вокруг и обратите сороку в бобра.</t>
+  </si>
+  <si>
+    <t>Free Select Beaver Spawn Free Surrounding Select Lock Free Surrounding Select Lock Magpie Occupied Select Beaver Convert</t>
+  </si>
+  <si>
+    <t>Создайте сорочонка на случайной клетке.</t>
+  </si>
+  <si>
+    <t>Free Select Magpie Spawn Free Random Magpie Spawn</t>
+  </si>
+  <si>
+    <t>Вы берёте случайную карту из сброса.</t>
+  </si>
+  <si>
+    <t>Возьмите 3 карты, а затем сбросьте 2.</t>
+  </si>
+  <si>
+    <t>Передвиньте двух сорок и заблокируйте клетку.</t>
+  </si>
+  <si>
+    <t>Обратите отряд.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Возьмите две случайные карты из руки противника. </t>
+  </si>
+  <si>
+    <t>Free Select Magpie Spawn Opponent Hand Draw Draw</t>
+  </si>
+  <si>
+    <t>Free Select Magpie Spawn Magpie Occupied Select ShiftAnchor Free Adjacent Select Drag Also Magpie Occupied Select ShiftAnchor Free Adjacent Select Drag Also Free Select Lock</t>
+  </si>
+  <si>
+    <t>Обратите случайного бобра.</t>
+  </si>
+  <si>
+    <t>Free Select Magpie Spawn Beaver Occupied Random Invert</t>
+  </si>
+  <si>
+    <t>Free Select Magpie Spawn Player Deck Draw Draw Draw Also Player Hand Discard Discard</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -685,45 +677,45 @@
   </cellStyleXfs>
   <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -945,25 +937,25 @@
   </sheetPr>
   <dimension ref="A1:Z26"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.08984375" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" customWidth="1"/>
     <col min="3" max="3" width="75" customWidth="1"/>
-    <col min="5" max="5" width="99.36328125" customWidth="1"/>
+    <col min="5" max="5" width="99.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -971,7 +963,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D2" s="11">
         <v>0</v>
@@ -980,7 +972,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>3</v>
       </c>
@@ -988,7 +980,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D3" s="11">
         <v>1</v>
@@ -997,7 +989,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>6</v>
       </c>
@@ -1005,16 +997,16 @@
         <v>4</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>103</v>
+        <v>151</v>
       </c>
       <c r="D4" s="11">
         <v>2</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E4" s="31" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>7</v>
       </c>
@@ -1022,23 +1014,23 @@
         <v>4</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="D5" s="11">
         <v>3</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="16"/>
+      <c r="C6" s="15"/>
       <c r="D6" s="11">
         <v>4</v>
       </c>
@@ -1046,7 +1038,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>10</v>
       </c>
@@ -1054,7 +1046,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D7" s="11">
         <v>5</v>
@@ -1063,7 +1055,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>12</v>
       </c>
@@ -1071,7 +1063,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D8" s="11">
         <v>6</v>
@@ -1080,7 +1072,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>14</v>
       </c>
@@ -1088,24 +1080,24 @@
         <v>4</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D9" s="11">
         <v>7</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D10" s="11">
         <v>8</v>
@@ -1114,15 +1106,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D11" s="11">
         <v>9</v>
@@ -1131,49 +1123,49 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="28" t="s">
-        <v>127</v>
+      <c r="C12" s="32" t="s">
+        <v>154</v>
       </c>
       <c r="D12" s="11">
         <v>10</v>
       </c>
-      <c r="E12" s="18" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E12" s="17" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="28" t="s">
-        <v>128</v>
+      <c r="C13" s="27" t="s">
+        <v>118</v>
       </c>
       <c r="D13" s="11">
         <v>11</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="28" t="s">
-        <v>129</v>
+      <c r="C14" s="27" t="s">
+        <v>119</v>
       </c>
       <c r="D14" s="11">
         <v>12</v>
@@ -1182,24 +1174,24 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="19" t="s">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="19" t="s">
-        <v>130</v>
+      <c r="C15" s="18" t="s">
+        <v>144</v>
       </c>
       <c r="D15" s="11">
         <v>13</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>23</v>
       </c>
@@ -1207,115 +1199,115 @@
         <v>20</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="D16" s="11">
         <v>14</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="32" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
-        <v>25</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="D17" s="11">
         <v>15</v>
       </c>
-      <c r="E17" s="30" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E17" s="29" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="28" t="s">
-        <v>133</v>
+      <c r="C18" s="27" t="s">
+        <v>121</v>
       </c>
       <c r="D18" s="11">
         <v>16</v>
       </c>
       <c r="E18" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="11" t="s">
-        <v>28</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="31" t="s">
-        <v>161</v>
+      <c r="C19" s="32" t="s">
+        <v>155</v>
       </c>
       <c r="D19" s="11">
         <v>17</v>
       </c>
-      <c r="E19" s="31" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="32" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="28" t="s">
-        <v>134</v>
+      <c r="C20" s="32" t="s">
+        <v>122</v>
       </c>
       <c r="D20" s="11">
         <v>18</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" s="13" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D21" s="11">
         <v>19</v>
       </c>
-      <c r="E21" s="28" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E21" s="27" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>123</v>
+        <v>31</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>114</v>
       </c>
       <c r="D22" s="11">
         <v>20</v>
       </c>
-      <c r="E22" s="28" t="s">
-        <v>124</v>
+      <c r="E22" s="27" t="s">
+        <v>115</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
@@ -1339,72 +1331,72 @@
       <c r="Y22" s="6"/>
       <c r="Z22" s="6"/>
     </row>
-    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>135</v>
+      <c r="C23" s="30" t="s">
+        <v>156</v>
       </c>
       <c r="D23" s="11">
         <v>21</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="D24" s="11">
         <v>22</v>
       </c>
-      <c r="E24" s="11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E24" s="32" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="28" t="s">
-        <v>137</v>
+        <v>31</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>123</v>
       </c>
       <c r="D25" s="11">
         <v>23</v>
       </c>
       <c r="E25" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="11" t="s">
-        <v>38</v>
-      </c>
       <c r="B26" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="28" t="s">
-        <v>138</v>
+        <v>31</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>124</v>
       </c>
       <c r="D26" s="11">
         <v>24</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1423,244 +1415,244 @@
   </sheetPr>
   <dimension ref="A1:Z26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.453125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="12.6328125" style="8"/>
-    <col min="3" max="3" width="80.6328125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="12.6328125" style="8"/>
-    <col min="5" max="5" width="108.08984375" style="8" customWidth="1"/>
-    <col min="6" max="16384" width="12.6328125" style="8"/>
+    <col min="1" max="1" width="19.44140625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="8"/>
+    <col min="3" max="3" width="80.6640625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="8"/>
+    <col min="5" max="5" width="108.109375" style="8" customWidth="1"/>
+    <col min="6" max="16384" width="12.6640625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A1" s="9"/>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
     </row>
-    <row r="2" spans="1:26" ht="14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="28" t="s">
-        <v>139</v>
+      <c r="C2" s="27" t="s">
+        <v>125</v>
       </c>
       <c r="D2" s="11">
         <v>25</v>
       </c>
       <c r="E2" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" ht="14" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
-        <v>41</v>
-      </c>
       <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="28" t="s">
-        <v>140</v>
+      <c r="C3" s="27" t="s">
+        <v>126</v>
       </c>
       <c r="D3" s="11">
         <v>26</v>
       </c>
       <c r="E3" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" ht="14" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
-        <v>43</v>
-      </c>
       <c r="B4" s="12" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D4" s="11">
         <v>27</v>
       </c>
       <c r="E4" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" ht="14" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
-        <v>45</v>
-      </c>
       <c r="B5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="21"/>
+      <c r="C5" s="20"/>
       <c r="D5" s="11">
         <v>28</v>
       </c>
       <c r="E5" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" ht="14" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
-        <v>47</v>
-      </c>
       <c r="B6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="28" t="s">
-        <v>109</v>
+      <c r="C6" s="27" t="s">
+        <v>102</v>
       </c>
       <c r="D6" s="11">
         <v>29</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="14" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="28" t="s">
-        <v>141</v>
+      <c r="C7" s="27" t="s">
+        <v>127</v>
       </c>
       <c r="D7" s="11">
         <v>30</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="14" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="28" t="s">
-        <v>142</v>
+      <c r="C8" s="27" t="s">
+        <v>128</v>
       </c>
       <c r="D8" s="11">
         <v>31</v>
       </c>
       <c r="E8" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" ht="14" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
-        <v>51</v>
-      </c>
       <c r="B9" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="28" t="s">
-        <v>143</v>
+      <c r="C9" s="27" t="s">
+        <v>129</v>
       </c>
       <c r="D9" s="11">
         <v>32</v>
       </c>
       <c r="E9" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" ht="14" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
-        <v>53</v>
-      </c>
       <c r="B10" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="28" t="s">
-        <v>107</v>
+      <c r="C10" s="27" t="s">
+        <v>100</v>
       </c>
       <c r="D10" s="11">
         <v>33</v>
       </c>
       <c r="E10" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" ht="14" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
-        <v>55</v>
-      </c>
       <c r="B11" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="27" t="s">
-        <v>130</v>
+      <c r="C11" s="30" t="s">
+        <v>144</v>
       </c>
       <c r="D11" s="14">
         <v>34</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="14" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="28" t="s">
-        <v>144</v>
+      <c r="C12" s="27" t="s">
+        <v>130</v>
       </c>
       <c r="D12" s="11">
         <v>35</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="14" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="27" t="s">
-        <v>145</v>
+      <c r="C13" s="30" t="s">
+        <v>143</v>
       </c>
       <c r="D13" s="14">
         <v>36</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" s="19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="D14" s="20">
+      <c r="C14" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="D14" s="19">
         <v>37</v>
       </c>
-      <c r="E14" s="24" t="s">
-        <v>92</v>
+      <c r="E14" s="23" t="s">
+        <v>89</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="7"/>
@@ -1684,123 +1676,123 @@
       <c r="Y14" s="7"/>
       <c r="Z14" s="7"/>
     </row>
-    <row r="15" spans="1:26" ht="14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="D15" s="14">
         <v>38</v>
       </c>
-      <c r="E15" s="15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" ht="14" x14ac:dyDescent="0.3">
+      <c r="E15" s="31" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="29" t="s">
-        <v>147</v>
+      <c r="C16" s="32" t="s">
+        <v>132</v>
       </c>
       <c r="D16" s="11">
         <v>39</v>
       </c>
-      <c r="E16" s="29" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" ht="14" x14ac:dyDescent="0.3">
+      <c r="E16" s="28" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="29" t="s">
-        <v>148</v>
+      <c r="C17" s="28" t="s">
+        <v>133</v>
       </c>
       <c r="D17" s="11">
         <v>40</v>
       </c>
-      <c r="E17" s="29" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" ht="14" x14ac:dyDescent="0.3">
+      <c r="E17" s="28" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="28" t="s">
-        <v>149</v>
+      <c r="C18" s="27" t="s">
+        <v>134</v>
       </c>
       <c r="D18" s="11">
         <v>41</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" ht="14" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="28" t="s">
-        <v>150</v>
+      <c r="C19" s="27" t="s">
+        <v>135</v>
       </c>
       <c r="D19" s="11">
         <v>42</v>
       </c>
       <c r="E19" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" ht="14" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
-        <v>64</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="28" t="s">
-        <v>151</v>
+      <c r="C20" s="27" t="s">
+        <v>136</v>
       </c>
       <c r="D20" s="11">
         <v>43</v>
       </c>
       <c r="E20" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="21" spans="1:26" ht="14" x14ac:dyDescent="0.3">
-      <c r="A21" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="D21" s="25">
+      <c r="C21" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="D21" s="24">
         <v>44</v>
       </c>
-      <c r="E21" s="26" t="s">
-        <v>122</v>
+      <c r="E21" s="25" t="s">
+        <v>113</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
@@ -1824,89 +1816,89 @@
       <c r="Y21" s="7"/>
       <c r="Z21" s="7"/>
     </row>
-    <row r="22" spans="1:26" ht="14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D22" s="14">
         <v>45</v>
       </c>
       <c r="E22" s="32" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" ht="14" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="19">
+        <v>46</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="D23" s="20">
-        <v>46</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" ht="14" x14ac:dyDescent="0.3">
-      <c r="A24" s="11" t="s">
-        <v>69</v>
-      </c>
       <c r="B24" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>154</v>
+        <v>31</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>138</v>
       </c>
       <c r="D24" s="11">
         <v>47</v>
       </c>
       <c r="E24" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="25" spans="1:26" ht="14" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
-        <v>71</v>
-      </c>
       <c r="B25" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="28" t="s">
-        <v>155</v>
+        <v>31</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>139</v>
       </c>
       <c r="D25" s="11">
         <v>48</v>
       </c>
       <c r="E25" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="26" spans="1:26" ht="14" x14ac:dyDescent="0.3">
-      <c r="A26" s="11" t="s">
-        <v>73</v>
-      </c>
       <c r="B26" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>102</v>
+        <v>31</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>149</v>
       </c>
       <c r="D26" s="14">
         <v>49</v>
       </c>
-      <c r="E26" s="11" t="s">
-        <v>91</v>
+      <c r="E26" s="32" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -1923,77 +1915,77 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.08984375" customWidth="1"/>
-    <col min="6" max="6" width="56.81640625" customWidth="1"/>
+    <col min="1" max="1" width="52.109375" customWidth="1"/>
+    <col min="6" max="6" width="56.77734375" customWidth="1"/>
     <col min="9" max="9" width="57" customWidth="1"/>
-    <col min="12" max="12" width="70.6328125" customWidth="1"/>
+    <col min="12" max="12" width="70.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="L2" s="5" t="s">
+    </row>
+    <row r="3" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="2" t="s">
+    </row>
+    <row r="5" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="B5" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B6" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>

--- a/Assets/Cards/Cards.xlsx
+++ b/Assets/Cards/Cards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\LuckyThicket\Assets\Cards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD466ABA-5268-43FE-AAF5-A2021F5C57EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD657C4-AEE4-44F4-B997-BFFC87272746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -480,15 +480,6 @@
     <t>Оттолкните все отряды по соседству и уничтожьте сороку.</t>
   </si>
   <si>
-    <t>Free Select Beaver Spawn Playable Occupied Adjacent All Push Magpie Occupied Select Kill</t>
-  </si>
-  <si>
-    <t>Заблокируйте две клетки вокруг и обратите сороку в бобра.</t>
-  </si>
-  <si>
-    <t>Free Select Beaver Spawn Free Surrounding Select Lock Free Surrounding Select Lock Magpie Occupied Select Beaver Convert</t>
-  </si>
-  <si>
     <t>Создайте сорочонка на случайной клетке.</t>
   </si>
   <si>
@@ -523,17 +514,42 @@
   </si>
   <si>
     <t>Free Select Magpie Spawn Player Deck Draw Draw Draw Also Player Hand Discard Discard</t>
+  </si>
+  <si>
+    <t>Free Select Beaver Spawn ShiftAnchor Playable Occupied Adjacent All Push Magpie Occupied Select Kill</t>
+  </si>
+  <si>
+    <t>Free Select Beaver Spawn Free Surrounding All Lock Magpie Occupied Select Beaver Convert</t>
+  </si>
+  <si>
+    <t>Заблокируйте все клетки вокруг и обратите сороку в бобра.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -675,48 +691,50 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -997,13 +1015,13 @@
         <v>4</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D4" s="11">
         <v>2</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1014,7 +1032,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D5" s="11">
         <v>3</v>
@@ -1131,13 +1149,13 @@
         <v>4</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D12" s="11">
         <v>10</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1199,13 +1217,13 @@
         <v>20</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D16" s="11">
         <v>14</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1250,13 +1268,13 @@
         <v>20</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D19" s="11">
         <v>17</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1339,7 +1357,7 @@
         <v>31</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D23" s="11">
         <v>21</v>
@@ -1356,13 +1374,13 @@
         <v>31</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D24" s="11">
         <v>22</v>
       </c>
       <c r="E24" s="32" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1416,7 +1434,7 @@
   <dimension ref="A1:Z26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1829,8 +1847,8 @@
       <c r="D22" s="14">
         <v>45</v>
       </c>
-      <c r="E22" s="32" t="s">
-        <v>148</v>
+      <c r="E22" s="33" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
@@ -1891,14 +1909,14 @@
       <c r="B26" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="30" t="s">
-        <v>149</v>
+      <c r="C26" s="34" t="s">
+        <v>162</v>
       </c>
       <c r="D26" s="14">
         <v>49</v>
       </c>
-      <c r="E26" s="32" t="s">
-        <v>150</v>
+      <c r="E26" s="33" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
